--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Thbs1-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Thbs1-Itga6.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>142.9073533333333</v>
+        <v>3.075165666666667</v>
       </c>
       <c r="H2">
-        <v>428.72206</v>
+        <v>9.225497000000001</v>
       </c>
       <c r="I2">
-        <v>0.5576664151504187</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="J2">
-        <v>0.5576664151504188</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>103.4766596666667</v>
+        <v>139.728498</v>
       </c>
       <c r="N2">
-        <v>310.429979</v>
+        <v>419.185494</v>
       </c>
       <c r="O2">
-        <v>0.877785331764719</v>
+        <v>0.9065295391216045</v>
       </c>
       <c r="P2">
-        <v>0.8777853317647188</v>
+        <v>0.9065295391216045</v>
       </c>
       <c r="Q2">
-        <v>14787.57556473742</v>
+        <v>429.6882797045021</v>
       </c>
       <c r="R2">
-        <v>133088.1800826367</v>
+        <v>3867.194517340518</v>
       </c>
       <c r="S2">
-        <v>0.4895113992368518</v>
+        <v>0.02394392592544612</v>
       </c>
       <c r="T2">
-        <v>0.4895113992368518</v>
+        <v>0.02394392592544612</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>142.9073533333333</v>
+        <v>3.075165666666667</v>
       </c>
       <c r="H3">
-        <v>428.72206</v>
+        <v>9.225497000000001</v>
       </c>
       <c r="I3">
-        <v>0.5576664151504187</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="J3">
-        <v>0.5576664151504188</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.479739</v>
       </c>
       <c r="O3">
-        <v>0.007011818020336602</v>
+        <v>0.005362677585431591</v>
       </c>
       <c r="P3">
-        <v>0.0070118180203366</v>
+        <v>0.005362677585431591</v>
       </c>
       <c r="Q3">
-        <v>118.1243124824822</v>
+        <v>2.541869411698112</v>
       </c>
       <c r="R3">
-        <v>1063.11881234234</v>
+        <v>22.87682470528301</v>
       </c>
       <c r="S3">
-        <v>0.003910255419088219</v>
+        <v>0.0001416429904667451</v>
       </c>
       <c r="T3">
-        <v>0.003910255419088218</v>
+        <v>0.0001416429904667451</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>142.9073533333333</v>
+        <v>3.075165666666667</v>
       </c>
       <c r="H4">
-        <v>428.72206</v>
+        <v>9.225497000000001</v>
       </c>
       <c r="I4">
-        <v>0.5576664151504187</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="J4">
-        <v>0.5576664151504188</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>40.741645</v>
       </c>
       <c r="O4">
-        <v>0.1152028502149446</v>
+        <v>0.0881077832929639</v>
       </c>
       <c r="P4">
-        <v>0.1152028502149446</v>
+        <v>0.0881077832929639</v>
       </c>
       <c r="Q4">
-        <v>1940.760219132078</v>
+        <v>41.76243596917389</v>
       </c>
       <c r="R4">
-        <v>17466.8419721887</v>
+        <v>375.861923722565</v>
       </c>
       <c r="S4">
-        <v>0.0642447604944788</v>
+        <v>0.00232716767140998</v>
       </c>
       <c r="T4">
-        <v>0.0642447604944788</v>
+        <v>0.00232716767140998</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>191.903427</v>
       </c>
       <c r="I5">
-        <v>0.2496211559306514</v>
+        <v>0.549422396165273</v>
       </c>
       <c r="J5">
-        <v>0.2496211559306514</v>
+        <v>0.5494223961652731</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>103.4766596666667</v>
+        <v>139.728498</v>
       </c>
       <c r="N5">
-        <v>310.429979</v>
+        <v>419.185494</v>
       </c>
       <c r="O5">
-        <v>0.877785331764719</v>
+        <v>0.9065295391216045</v>
       </c>
       <c r="P5">
-        <v>0.8777853317647188</v>
+        <v>0.9065295391216045</v>
       </c>
       <c r="Q5">
-        <v>6619.175201515336</v>
+        <v>8938.125871920882</v>
       </c>
       <c r="R5">
-        <v>59572.57681363803</v>
+        <v>80443.13284728794</v>
       </c>
       <c r="S5">
-        <v>0.2191137891740794</v>
+        <v>0.4980676315787925</v>
       </c>
       <c r="T5">
-        <v>0.2191137891740794</v>
+        <v>0.4980676315787926</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>191.903427</v>
       </c>
       <c r="I6">
-        <v>0.2496211559306514</v>
+        <v>0.549422396165273</v>
       </c>
       <c r="J6">
-        <v>0.2496211559306514</v>
+        <v>0.5494223961652731</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>2.479739</v>
       </c>
       <c r="O6">
-        <v>0.007011818020336602</v>
+        <v>0.005362677585431591</v>
       </c>
       <c r="P6">
-        <v>0.0070118180203366</v>
+        <v>0.005362677585431591</v>
       </c>
       <c r="Q6">
         <v>52.87449024061701</v>
@@ -818,10 +818,10 @@
         <v>475.870412165553</v>
       </c>
       <c r="S6">
-        <v>0.001750298119411794</v>
+        <v>0.002946375168849625</v>
       </c>
       <c r="T6">
-        <v>0.001750298119411794</v>
+        <v>0.002946375168849626</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>191.903427</v>
       </c>
       <c r="I7">
-        <v>0.2496211559306514</v>
+        <v>0.549422396165273</v>
       </c>
       <c r="J7">
-        <v>0.2496211559306514</v>
+        <v>0.5494223961652731</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>40.741645</v>
       </c>
       <c r="O7">
-        <v>0.1152028502149446</v>
+        <v>0.0881077832929639</v>
       </c>
       <c r="P7">
-        <v>0.1152028502149446</v>
+        <v>0.0881077832929639</v>
       </c>
       <c r="Q7">
         <v>868.7179219019349</v>
@@ -880,10 +880,10 @@
         <v>7818.461297117415</v>
       </c>
       <c r="S7">
-        <v>0.02875706863716016</v>
+        <v>0.04840838941763084</v>
       </c>
       <c r="T7">
-        <v>0.02875706863716016</v>
+        <v>0.04840838941763084</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>148.15321</v>
       </c>
       <c r="I8">
-        <v>0.1927124289189298</v>
+        <v>0.424164867247404</v>
       </c>
       <c r="J8">
-        <v>0.1927124289189298</v>
+        <v>0.4241648672474041</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>103.4766596666667</v>
+        <v>139.728498</v>
       </c>
       <c r="N8">
-        <v>310.429979</v>
+        <v>419.185494</v>
       </c>
       <c r="O8">
-        <v>0.877785331764719</v>
+        <v>0.9065295391216045</v>
       </c>
       <c r="P8">
-        <v>0.8777853317647188</v>
+        <v>0.9065295391216045</v>
       </c>
       <c r="Q8">
-        <v>5110.133096564732</v>
+        <v>6900.40850239286</v>
       </c>
       <c r="R8">
-        <v>45991.19786908259</v>
+        <v>62103.67652153574</v>
       </c>
       <c r="S8">
-        <v>0.1691601433537876</v>
+        <v>0.3845179816173657</v>
       </c>
       <c r="T8">
-        <v>0.1691601433537876</v>
+        <v>0.3845179816173658</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>148.15321</v>
       </c>
       <c r="I9">
-        <v>0.1927124289189298</v>
+        <v>0.424164867247404</v>
       </c>
       <c r="J9">
-        <v>0.1927124289189298</v>
+        <v>0.4241648672474041</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>2.479739</v>
       </c>
       <c r="O9">
-        <v>0.007011818020336602</v>
+        <v>0.005362677585431591</v>
       </c>
       <c r="P9">
-        <v>0.0070118180203366</v>
+        <v>0.005362677585431591</v>
       </c>
       <c r="Q9">
         <v>40.82014364579889</v>
@@ -1004,10 +1004,10 @@
         <v>367.3812928121901</v>
       </c>
       <c r="S9">
-        <v>0.001351264481836588</v>
+        <v>0.00227465942611522</v>
       </c>
       <c r="T9">
-        <v>0.001351264481836588</v>
+        <v>0.00227465942611522</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>148.15321</v>
       </c>
       <c r="I10">
-        <v>0.1927124289189298</v>
+        <v>0.424164867247404</v>
       </c>
       <c r="J10">
-        <v>0.1927124289189298</v>
+        <v>0.4241648672474041</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>40.741645</v>
       </c>
       <c r="O10">
-        <v>0.1152028502149446</v>
+        <v>0.0881077832929639</v>
       </c>
       <c r="P10">
-        <v>0.1152028502149446</v>
+        <v>0.0881077832929639</v>
       </c>
       <c r="Q10">
         <v>670.6672763811611</v>
@@ -1066,10 +1066,10 @@
         <v>6036.00548743045</v>
       </c>
       <c r="S10">
-        <v>0.02220102108330563</v>
+        <v>0.03737222620392307</v>
       </c>
       <c r="T10">
-        <v>0.02220102108330563</v>
+        <v>0.03737222620392308</v>
       </c>
     </row>
   </sheetData>
